--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -1,33 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bharathi/IdeaProjects/Mintvelvet/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bharathi/IdeaProjects/MVAutomation/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37107604-E8E1-514C-BD01-87F5717B87EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CF04A9-71ED-E24E-8C89-E91A58F62E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="exampleSheet" sheetId="3" r:id="rId1"/>
-    <sheet name="Smoke" sheetId="1" r:id="rId2"/>
-    <sheet name="Regression" sheetId="2" r:id="rId3"/>
+    <sheet name="RedirectionalSearch" sheetId="4" r:id="rId1"/>
+    <sheet name="RedirectionalSearchBackup" sheetId="7" r:id="rId2"/>
+    <sheet name="CheckOutTest" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="exampleSheet" sheetId="3" r:id="rId5"/>
+    <sheet name="Smoke" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="248">
   <si>
     <t>Jeans</t>
   </si>
@@ -81,6 +94,696 @@
   </si>
   <si>
     <t>excelExampleTest</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>expectedSearchPage</t>
+  </si>
+  <si>
+    <t>searchProductRedirectionTest</t>
+  </si>
+  <si>
+    <t>Beachwear</t>
+  </si>
+  <si>
+    <t>Our latest beachwear collection is here and it’s filled with the easy, fluid shapes we’re known for, in all-new prints. Expect kaftans, sandals, kimonos and beach dresses for those last-minute getaways.</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>beachwear</t>
+  </si>
+  <si>
+    <t>beach wear</t>
+  </si>
+  <si>
+    <t>expectedDescription</t>
+  </si>
+  <si>
+    <t>Loungewear</t>
+  </si>
+  <si>
+    <t>With so many of us working from home or looking after little ones, finding joy in our home rituals is arguably more important than ever. So, we’ve put together a selection of essentials you can add to your at home uniform, all in our Relaxed Glamour handwriting – from leggings and comfy co-ords to our cool sweatshirt and jogger sets.</t>
+  </si>
+  <si>
+    <t>Womens Loungewear</t>
+  </si>
+  <si>
+    <t>womens loungewear</t>
+  </si>
+  <si>
+    <t>womens lounge wear</t>
+  </si>
+  <si>
+    <t>lounge</t>
+  </si>
+  <si>
+    <t>lounge wear</t>
+  </si>
+  <si>
+    <t>New In</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Is your wardrobe ready for the new season? Fill any gaps with our latest arrivals, from head-turning dresses and cosy jumpers to the ultimate accessories.</t>
+  </si>
+  <si>
+    <t>newness</t>
+  </si>
+  <si>
+    <t>new arrivals</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>gifts</t>
+  </si>
+  <si>
+    <t>gifting</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>presents</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>One for me, one for you... That's our approach when it comes to gifting. Treat someone special (yourself included) with our curated edit of gift ideas, from soft knits and everyday trainers to coffee table books and scented candles. (Psst... Not sure what she’d like? Check out our Gift Cards page)</t>
+  </si>
+  <si>
+    <t>Co-Ords &amp; Matching Sets</t>
+  </si>
+  <si>
+    <t>Double up on sartorial points this season with our co-ords edit. From soft knitted twin sets for all occasions to the airy linen separates everyone is wearing, our edit works just as well worn together as separately.</t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>co-ord</t>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>coord</t>
+  </si>
+  <si>
+    <t>coords</t>
+  </si>
+  <si>
+    <t>co-ords</t>
+  </si>
+  <si>
+    <t>matching sets</t>
+  </si>
+  <si>
+    <t>twin set</t>
+  </si>
+  <si>
+    <t>twin sets</t>
+  </si>
+  <si>
+    <t>Tracksuit</t>
+  </si>
+  <si>
+    <t>the conscious edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  conscious edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sustainable edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the sustainable edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  recycled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sustainable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  organic + cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  recycled polyester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Earth day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  World Land Trust</t>
+  </si>
+  <si>
+    <t>Linen Edit</t>
+  </si>
+  <si>
+    <t>Linen Category</t>
+  </si>
+  <si>
+    <t>The Linen Edit</t>
+  </si>
+  <si>
+    <t>The Linen Category</t>
+  </si>
+  <si>
+    <t>Say hello to summer's most breathable fibre…. Linen is made from flax, a plant that's been cultivated for thousands of years for its amazing drape, lightness and breathability - we reach for it constantly through the warmer months in the form of relaxed suits, airy dresses and colourful separates to mix &amp; match.</t>
+  </si>
+  <si>
+    <t>Linen</t>
+  </si>
+  <si>
+    <t>partywear</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>party dress</t>
+  </si>
+  <si>
+    <t>Occasionwear</t>
+  </si>
+  <si>
+    <t>Our occasionwear edit is here to help you nail the dress code while staying true to your personal style - think head-turning dresses, sleek suits and impeccable accessories.</t>
+  </si>
+  <si>
+    <t>Mintie</t>
+  </si>
+  <si>
+    <t>Girls</t>
+  </si>
+  <si>
+    <t>Mintie Girls</t>
+  </si>
+  <si>
+    <t>Girlswear</t>
+  </si>
+  <si>
+    <t>All Kidswear</t>
+  </si>
+  <si>
+    <t>Denim fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  jeans fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  denim fit guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  jeans fit guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  jean shapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  denim shapes</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>catalogue</t>
+  </si>
+  <si>
+    <t>brochure</t>
+  </si>
+  <si>
+    <t>sign up</t>
+  </si>
+  <si>
+    <t>returns</t>
+  </si>
+  <si>
+    <t>return period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delivery &amp; returns</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>delivery and returns</t>
+  </si>
+  <si>
+    <t>returns period</t>
+  </si>
+  <si>
+    <t>market harborough</t>
+  </si>
+  <si>
+    <t>harborough</t>
+  </si>
+  <si>
+    <t>arnotts</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>beaconsfield</t>
+  </si>
+  <si>
+    <t>belfast</t>
+  </si>
+  <si>
+    <t>berkhamstead</t>
+  </si>
+  <si>
+    <t>beverley</t>
+  </si>
+  <si>
+    <t>bishops stortford</t>
+  </si>
+  <si>
+    <t>brown thomas</t>
+  </si>
+  <si>
+    <t>bracknell</t>
+  </si>
+  <si>
+    <t>brent cross</t>
+  </si>
+  <si>
+    <t>bristol</t>
+  </si>
+  <si>
+    <t>cambridge</t>
+  </si>
+  <si>
+    <t>camp hopson</t>
+  </si>
+  <si>
+    <t>canary wharf</t>
+  </si>
+  <si>
+    <t>canterbury</t>
+  </si>
+  <si>
+    <t>cardif</t>
+  </si>
+  <si>
+    <t>cheadle</t>
+  </si>
+  <si>
+    <t>chelmsford</t>
+  </si>
+  <si>
+    <t>cheltenham</t>
+  </si>
+  <si>
+    <t>cheshire oaks</t>
+  </si>
+  <si>
+    <t>chichester</t>
+  </si>
+  <si>
+    <t>chiswick</t>
+  </si>
+  <si>
+    <t>clarks village</t>
+  </si>
+  <si>
+    <t>cobham</t>
+  </si>
+  <si>
+    <t>colchester</t>
+  </si>
+  <si>
+    <t>coleraine moores</t>
+  </si>
+  <si>
+    <t>cork</t>
+  </si>
+  <si>
+    <t>cribbs causeway</t>
+  </si>
+  <si>
+    <t>dundrum</t>
+  </si>
+  <si>
+    <t>edinburghelys wimbledon</t>
+  </si>
+  <si>
+    <t>exeter</t>
+  </si>
+  <si>
+    <t>farnham</t>
+  </si>
+  <si>
+    <t>galway</t>
+  </si>
+  <si>
+    <t>glasgow</t>
+  </si>
+  <si>
+    <t>grafton street</t>
+  </si>
+  <si>
+    <t>guildford</t>
+  </si>
+  <si>
+    <t>gunwharf quays</t>
+  </si>
+  <si>
+    <t>harpenden</t>
+  </si>
+  <si>
+    <t>harrogate</t>
+  </si>
+  <si>
+    <t>harveys</t>
+  </si>
+  <si>
+    <t>henley on thames</t>
+  </si>
+  <si>
+    <t>hitchin</t>
+  </si>
+  <si>
+    <t>horsham</t>
+  </si>
+  <si>
+    <t>ilkley</t>
+  </si>
+  <si>
+    <t>isle of man</t>
+  </si>
+  <si>
+    <t>jersey de gruchy</t>
+  </si>
+  <si>
+    <t>kildare</t>
+  </si>
+  <si>
+    <t>kingston</t>
+  </si>
+  <si>
+    <t>leamington spa</t>
+  </si>
+  <si>
+    <t>leeds</t>
+  </si>
+  <si>
+    <t>leicester</t>
+  </si>
+  <si>
+    <t>limerick</t>
+  </si>
+  <si>
+    <t>liverpool</t>
+  </si>
+  <si>
+    <t>lytham stringers</t>
+  </si>
+  <si>
+    <t>manchester</t>
+  </si>
+  <si>
+    <t>marlborough</t>
+  </si>
+  <si>
+    <t>marlow</t>
+  </si>
+  <si>
+    <t>morpeth</t>
+  </si>
+  <si>
+    <t>newcastle</t>
+  </si>
+  <si>
+    <t>norwich</t>
+  </si>
+  <si>
+    <t>nottingham</t>
+  </si>
+  <si>
+    <t>oxford</t>
+  </si>
+  <si>
+    <t>petersfield</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>reigate</t>
+  </si>
+  <si>
+    <t>rushden lakes</t>
+  </si>
+  <si>
+    <t>sevenoaks</t>
+  </si>
+  <si>
+    <t>sloane square</t>
+  </si>
+  <si>
+    <t>solihil</t>
+  </si>
+  <si>
+    <t>southampton</t>
+  </si>
+  <si>
+    <t>st albans</t>
+  </si>
+  <si>
+    <t>stamford</t>
+  </si>
+  <si>
+    <t>stratford upon avon</t>
+  </si>
+  <si>
+    <t>tenterden</t>
+  </si>
+  <si>
+    <t>thame</t>
+  </si>
+  <si>
+    <t>trafford</t>
+  </si>
+  <si>
+    <t>truro</t>
+  </si>
+  <si>
+    <t>tunbridge wells</t>
+  </si>
+  <si>
+    <t>welwyn</t>
+  </si>
+  <si>
+    <t>westfield</t>
+  </si>
+  <si>
+    <t>white city</t>
+  </si>
+  <si>
+    <t>wimbledon</t>
+  </si>
+  <si>
+    <t>wimborne</t>
+  </si>
+  <si>
+    <t>winchester</t>
+  </si>
+  <si>
+    <t>windsor</t>
+  </si>
+  <si>
+    <t>york</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Sale women</t>
+  </si>
+  <si>
+    <t>Sale womens</t>
+  </si>
+  <si>
+    <t>Sale items</t>
+  </si>
+  <si>
+    <t>Dress sale</t>
+  </si>
+  <si>
+    <t>Womens sale jeans</t>
+  </si>
+  <si>
+    <t>Sale bags</t>
+  </si>
+  <si>
+    <t>Womens sale knitwear</t>
+  </si>
+  <si>
+    <t>Sale knitwear</t>
+  </si>
+  <si>
+    <t>Sale coats</t>
+  </si>
+  <si>
+    <t>Sale trousers</t>
+  </si>
+  <si>
+    <t>Sale jumper</t>
+  </si>
+  <si>
+    <t>Sale leggings</t>
+  </si>
+  <si>
+    <t>Sale jumpers</t>
+  </si>
+  <si>
+    <t>Sale tops</t>
+  </si>
+  <si>
+    <t>Dresses in sale</t>
+  </si>
+  <si>
+    <t>Sale dresses</t>
+  </si>
+  <si>
+    <t>Sale midi dresses</t>
+  </si>
+  <si>
+    <t>sale womens jeans</t>
+  </si>
+  <si>
+    <t>sale goods</t>
+  </si>
+  <si>
+    <t>Get ready to fill the gaps in your summer wardrobe with our SALE. We've got everything from head-turning dresses to flowing skirts and airy tops - all waiting to slip into your basket... now for less.</t>
+  </si>
+  <si>
+    <t>Women's Sale</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  holiday shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  summer shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  holiday clothes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  summer</t>
+  </si>
+  <si>
+    <t>holiday shop</t>
+  </si>
+  <si>
+    <t>summer shop</t>
+  </si>
+  <si>
+    <t>holiday clothes</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>Summer Shop</t>
+  </si>
+  <si>
+    <t>Discover the sculpting swimwear, airy tops &amp; dresses and new-season accessories in our holiday wardrobe of dreams.</t>
+  </si>
+  <si>
+    <t>Jewellery</t>
+  </si>
+  <si>
+    <t>The perfect finishing touch to an outfit? Jewellery. This season we're loving our classic star motif, chunky chains and coins. Each piece is designed to mix and match... creating a layered look couldn't be easier.</t>
+  </si>
+  <si>
+    <t>swimming</t>
+  </si>
+  <si>
+    <t>swimwear</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>Our latest swimwear collection is here and it’s filled with the sculpting, ultra-flattering shapes we’re known for, in all-new prints - each piece features built-in cups and a second-skin layer to shape and sculpt your figure. Expect swimsuits, bikinis, kimonos and beach dresses for those last-minute getaways.</t>
+  </si>
+  <si>
+    <t>Swimwear</t>
+  </si>
+  <si>
+    <t>knitwear</t>
+  </si>
+  <si>
+    <t>Jumpers &amp; Cardigans</t>
+  </si>
+  <si>
+    <t>Embrace the art of layering with our jumpers and cardigans edit. From lighter blends to chunky textures, each piece feels as soft to touch as it is easy to wear.</t>
+  </si>
+  <si>
+    <t>footwear</t>
+  </si>
+  <si>
+    <t>all footwear</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>all shoes</t>
+  </si>
+  <si>
+    <t>All Shoes &amp; Sandals</t>
+  </si>
+  <si>
+    <t>Start your looks from the feet up! We have all the new-season styles to tempt you, from on-trend boots in all lengths and textures to your favourite everyday trainers.</t>
+  </si>
+  <si>
+    <t>Dakota White Distressed Jeans</t>
+  </si>
+  <si>
+    <t>Black Pocket Striped Joggers</t>
   </si>
 </sst>
 </file>
@@ -90,7 +793,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +811,19 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,12 +849,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +1135,1947 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161514EA-B604-DD4B-8C9E-340660A0C781}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="243.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35D601E-3256-5249-AF95-715B986676EF}">
+  <dimension ref="A1:D78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="243.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>225</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" t="s">
+        <v>228</v>
+      </c>
+      <c r="D68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" t="s">
+        <v>244</v>
+      </c>
+      <c r="D78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F67DF-A57B-48D1-B11B-19973B9B6019}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A315A2-26F3-654B-AFC3-34B4BB3C4205}">
+  <dimension ref="A22:H109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" t="s">
+        <v>220</v>
+      </c>
+      <c r="F43" t="s">
+        <v>221</v>
+      </c>
+      <c r="G43" t="s">
+        <v>222</v>
+      </c>
+      <c r="H43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" t="s">
+        <v>220</v>
+      </c>
+      <c r="F45" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" t="s">
+        <v>221</v>
+      </c>
+      <c r="G46" t="s">
+        <v>222</v>
+      </c>
+      <c r="H46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" t="str">
+        <f>TRIM(D48)</f>
+        <v>holiday</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" ref="E49:E52" si="0">TRIM(D49)</f>
+        <v>holiday shop</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>summer shop</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>holiday clothes</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>summer</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2C6AA2-0D01-3E40-854C-12298E512726}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -481,12 +3135,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -495,108 +3149,75 @@
     <col min="2" max="2" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F67DF-A57B-48D1-B11B-19973B9B6019}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>